--- a/design/単語集.xlsx
+++ b/design/単語集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\maz\git\emo-gs\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A82B5A-D929-4A02-8125-FB8D288D9399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CE8C5-C14F-4757-B000-A498FE723165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="658">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -2813,6 +2813,176 @@
     <rPh sb="0" eb="3">
       <t>ホシノケ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体の場所</t>
+    <rPh sb="0" eb="1">
+      <t>カラダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髪</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おでこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鼻</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のどぼとけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肩</t>
+    <rPh sb="0" eb="1">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乳首</t>
+    <rPh sb="0" eb="2">
+      <t>チクビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胸</t>
+    <rPh sb="0" eb="1">
+      <t>ムネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>へそ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちぶさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おなか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひざ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すね</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うで</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカウター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タブレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電柱</t>
+    <rPh sb="0" eb="2">
+      <t>デンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>釘バット</t>
+    <rPh sb="0" eb="1">
+      <t>クギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーツカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三只眼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>河童のお皿</t>
+    <rPh sb="0" eb="2">
+      <t>カッパ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>サラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キバ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3245,13 +3415,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F120" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="A125" sqref="A125:A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.33203125" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -7215,6 +7385,336 @@
       </c>
       <c r="F131" s="11"/>
     </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="3">
+        <v>132</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
+        <v>133</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
+        <v>134</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
+        <v>135</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
+        <v>136</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
+        <v>137</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
+        <v>138</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
+        <v>139</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
+        <v>140</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
+        <v>141</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
+        <v>142</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
+        <v>143</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
+        <v>144</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
+        <v>145</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
+        <v>146</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A147" s="3">
+        <v>147</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A148" s="3">
+        <v>148</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
+        <v>149</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A150" s="3">
+        <v>150</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A151" s="3">
+        <v>151</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A152" s="3">
+        <v>152</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A153" s="3">
+        <v>153</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A154" s="3">
+        <v>154</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A155" s="3">
+        <v>155</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A156" s="3">
+        <v>156</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A157" s="3">
+        <v>157</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A158" s="3">
+        <v>158</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A159" s="3">
+        <v>159</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A160" s="3">
+        <v>160</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A161" s="3">
+        <v>161</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/design/単語集.xlsx
+++ b/design/単語集.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\maz\git\emo-gs\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CE8C5-C14F-4757-B000-A498FE723165}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F59408-ED22-4929-AF40-579491AC1E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="695">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -1339,10 +1339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファウスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パリピ気質</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1820,10 +1816,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お調子者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>雛見沢分校</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2443,10 +2435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>磁場を感じる</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボクっ娘</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2983,6 +2971,298 @@
   </si>
   <si>
     <t>キバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#能力</t>
+    <rPh sb="1" eb="3">
+      <t>ノウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歌唱</t>
+    <rPh sb="0" eb="2">
+      <t>カショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歌うこと</t>
+    <rPh sb="0" eb="1">
+      <t>ウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>踊ること</t>
+    <rPh sb="0" eb="1">
+      <t>オド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暴飲暴食</t>
+    <rPh sb="0" eb="2">
+      <t>ボウイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ボウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何でも知る</t>
+    <rPh sb="0" eb="1">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>究明之王</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思考加速</t>
+    <rPh sb="0" eb="2">
+      <t>シコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影に潜る</t>
+    <rPh sb="0" eb="1">
+      <t>カゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての教科</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サバクモノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミダスモノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探求</t>
+    <rPh sb="0" eb="2">
+      <t>タンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カオスイーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腐食すること</t>
+    <rPh sb="0" eb="2">
+      <t>フショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>胃袋の共有</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魅了</t>
+    <rPh sb="0" eb="2">
+      <t>ミリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支配</t>
+    <rPh sb="0" eb="2">
+      <t>シハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>法術</t>
+    <rPh sb="0" eb="2">
+      <t>ホウジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焼き払うこと</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地獄耳</t>
+    <rPh sb="0" eb="3">
+      <t>ジゴクミミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薙ぎ払うこと</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷宮創造</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無敵空間</t>
+    <rPh sb="0" eb="2">
+      <t>ムテキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラッディベアー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くまぱんち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異世界知識</t>
+    <rPh sb="0" eb="3">
+      <t>イセカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>店舗経営</t>
+    <rPh sb="0" eb="2">
+      <t>テンポ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可視の攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>フカシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃撃</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気絶させること</t>
+    <rPh sb="0" eb="2">
+      <t>キゼツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠にはめること</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洗い物</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雛見沢の支配</t>
+    <rPh sb="4" eb="6">
+      <t>シハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磁場を感じること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>童貞を殺すこと</t>
+    <rPh sb="0" eb="2">
+      <t>ドウテイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獣の支配</t>
+    <rPh sb="0" eb="1">
+      <t>ケモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#XXXが出来る</t>
+    <rPh sb="5" eb="7">
+      <t>デキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3415,13 +3695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R161"/>
+  <dimension ref="A1:U161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A125" sqref="A125:A161"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.33203125" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
@@ -3435,17 +3715,20 @@
     <col min="7" max="8" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.21875" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="22.33203125" style="5"/>
+    <col min="17" max="17" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="22.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3456,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>33</v>
@@ -3465,43 +3748,52 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>618</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -3522,7 +3814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -3533,7 +3825,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>13</v>
@@ -3542,10 +3834,10 @@
         <v>18</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -3556,7 +3848,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>14</v>
@@ -3565,10 +3857,10 @@
         <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3579,7 +3871,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>15</v>
@@ -3588,10 +3880,10 @@
         <v>18</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -3602,7 +3894,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>16</v>
@@ -3611,10 +3903,10 @@
         <v>18</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -3625,7 +3917,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>7</v>
@@ -3637,13 +3929,25 @@
         <v>34</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="L7" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -3654,7 +3958,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>20</v>
@@ -3666,13 +3970,25 @@
         <v>34</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="L8" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -3683,7 +3999,7 @@
         <v>28</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>21</v>
@@ -3695,13 +4011,25 @@
         <v>34</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="L9" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -3712,7 +4040,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>22</v>
@@ -3724,13 +4052,25 @@
         <v>34</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="L10" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -3741,7 +4081,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>23</v>
@@ -3753,13 +4093,25 @@
         <v>34</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="L11" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -3770,7 +4122,7 @@
         <v>31</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>24</v>
@@ -3782,13 +4134,25 @@
         <v>34</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="L12" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -3799,7 +4163,7 @@
         <v>32</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>25</v>
@@ -3811,13 +4175,25 @@
         <v>34</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -3837,23 +4213,23 @@
       <c r="H14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -3864,7 +4240,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>41</v>
@@ -3876,10 +4252,10 @@
         <v>84</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -3890,7 +4266,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>42</v>
@@ -3902,10 +4278,10 @@
         <v>84</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -3926,20 +4302,20 @@
       <c r="H17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="P17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -3953,40 +4329,46 @@
         <v>66</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -4000,7 +4382,7 @@
         <v>68</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>55</v>
@@ -4009,19 +4391,19 @@
         <v>83</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="L19" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="P19" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="R19" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -4035,34 +4417,34 @@
         <v>67</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="P20" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="S20" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -4076,7 +4458,7 @@
         <v>70</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>59</v>
@@ -4085,25 +4467,25 @@
         <v>83</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="P21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="Q21" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="R21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="S21" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -4117,7 +4499,7 @@
         <v>69</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>61</v>
@@ -4126,16 +4508,16 @@
         <v>83</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="L22" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="P22" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="Q22" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -4149,7 +4531,7 @@
         <v>71</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>63</v>
@@ -4158,13 +4540,13 @@
         <v>83</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="L23" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -4178,7 +4560,7 @@
         <v>72</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>65</v>
@@ -4187,19 +4569,19 @@
         <v>78</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N24" s="5" t="s">
+      <c r="R24" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -4210,7 +4592,7 @@
         <v>99</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>100</v>
@@ -4219,13 +4601,13 @@
         <v>101</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="M25" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q25" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -4240,7 +4622,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -4251,7 +4633,7 @@
         <v>109</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>114</v>
@@ -4265,14 +4647,14 @@
       <c r="I27" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="M27" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="Q27" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -4283,7 +4665,7 @@
         <v>110</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>115</v>
@@ -4297,14 +4679,14 @@
       <c r="I28" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="M28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="Q28" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -4315,7 +4697,7 @@
         <v>111</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>116</v>
@@ -4326,14 +4708,14 @@
       <c r="I29" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="M29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="Q29" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -4344,7 +4726,7 @@
         <v>112</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>117</v>
@@ -4355,14 +4737,14 @@
       <c r="I30" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="M30" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="Q30" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -4373,7 +4755,7 @@
         <v>113</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>118</v>
@@ -4384,14 +4766,14 @@
       <c r="I31" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="M31" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="Q31" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -4411,14 +4793,14 @@
       <c r="H32" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="P32" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="Q32" s="4" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -4432,19 +4814,19 @@
         <v>162</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>134</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>149</v>
@@ -4452,14 +4834,17 @@
       <c r="L33" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="M33" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="R33" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="S33" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -4473,34 +4858,37 @@
         <v>137</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>136</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="M34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P34" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="Q34" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="R34" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="S34" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="Q34" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -4514,40 +4902,40 @@
         <v>169</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>144</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="M35" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="P35" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="Q35" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="R35" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -4561,40 +4949,40 @@
         <v>170</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>145</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="M36" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="P36" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="Q36" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="R36" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -4608,40 +4996,40 @@
         <v>171</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>146</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="M37" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="P37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="Q37" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="R37" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -4655,40 +5043,40 @@
         <v>172</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>147</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="M38" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="P38" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="Q38" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="R38" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -4702,40 +5090,40 @@
         <v>173</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>148</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="M39" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="P39" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="Q39" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="R39" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -4755,17 +5143,17 @@
       <c r="H40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="P40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="Q40" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="R40" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -4779,7 +5167,7 @@
         <v>189</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>191</v>
@@ -4797,19 +5185,25 @@
         <v>301</v>
       </c>
       <c r="M41" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="O41" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="P41" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="Q41" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="R41" s="5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -4820,7 +5214,7 @@
         <v>205</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>206</v>
@@ -4831,11 +5225,11 @@
       <c r="I42" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="P42" s="5" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -4849,7 +5243,7 @@
         <v>193</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>196</v>
@@ -4864,19 +5258,22 @@
         <v>257</v>
       </c>
       <c r="L43" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="P43" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="Q43" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="R43" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="O43" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -4887,7 +5284,7 @@
         <v>197</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>198</v>
@@ -4896,22 +5293,22 @@
         <v>208</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I44" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="P44" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q44" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="N44" s="5" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R44" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -4922,7 +5319,7 @@
         <v>199</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>200</v>
@@ -4931,16 +5328,16 @@
         <v>208</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L45" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P45" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>46</v>
       </c>
@@ -4951,7 +5348,7 @@
         <v>201</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>202</v>
@@ -4969,13 +5366,16 @@
         <v>297</v>
       </c>
       <c r="M46" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="P46" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="Q46" s="5" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>47</v>
       </c>
@@ -4986,7 +5386,7 @@
         <v>210</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>211</v>
@@ -4995,13 +5395,13 @@
         <v>209</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>48</v>
       </c>
@@ -5012,7 +5412,7 @@
         <v>212</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>213</v>
@@ -5026,14 +5426,14 @@
       <c r="I48" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="P48" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="Q48" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>49</v>
       </c>
@@ -5047,7 +5447,7 @@
         <v>215</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>216</v>
@@ -5061,11 +5461,11 @@
       <c r="I49" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="P49" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <v>50</v>
       </c>
@@ -5076,7 +5476,7 @@
         <v>218</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>219</v>
@@ -5090,11 +5490,11 @@
       <c r="I50" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="P50" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -5105,7 +5505,7 @@
         <v>220</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>221</v>
@@ -5119,11 +5519,11 @@
       <c r="I51" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="P51" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>52</v>
       </c>
@@ -5134,7 +5534,7 @@
         <v>222</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>223</v>
@@ -5149,10 +5549,13 @@
         <v>257</v>
       </c>
       <c r="L52" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="M52" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>53</v>
       </c>
@@ -5163,7 +5566,7 @@
         <v>224</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>225</v>
@@ -5178,7 +5581,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>54</v>
       </c>
@@ -5189,7 +5592,7 @@
         <v>226</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>227</v>
@@ -5204,7 +5607,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>55</v>
       </c>
@@ -5215,7 +5618,7 @@
         <v>228</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>229</v>
@@ -5230,7 +5633,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>56</v>
       </c>
@@ -5241,7 +5644,7 @@
         <v>230</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>231</v>
@@ -5256,10 +5659,13 @@
         <v>257</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+        <v>667</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>57</v>
       </c>
@@ -5270,7 +5676,7 @@
         <v>233</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>234</v>
@@ -5288,13 +5694,22 @@
         <v>285</v>
       </c>
       <c r="M57" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="P57" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="Q57" s="5" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>58</v>
       </c>
@@ -5305,7 +5720,7 @@
         <v>236</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>238</v>
@@ -5323,13 +5738,19 @@
         <v>288</v>
       </c>
       <c r="M58" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="N58" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="O58" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="P58" s="5" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <v>59</v>
       </c>
@@ -5340,7 +5761,7 @@
         <v>254</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>255</v>
@@ -5349,19 +5770,19 @@
         <v>268</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="P59" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="Q59" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>60</v>
       </c>
@@ -5372,7 +5793,7 @@
         <v>240</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>241</v>
@@ -5387,13 +5808,16 @@
         <v>292</v>
       </c>
       <c r="M60" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="P60" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="Q60" s="5" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>61</v>
       </c>
@@ -5404,7 +5828,7 @@
         <v>242</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>243</v>
@@ -5415,14 +5839,14 @@
       <c r="H61" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="M61" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="O61" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>62</v>
       </c>
@@ -5433,7 +5857,7 @@
         <v>245</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>246</v>
@@ -5444,14 +5868,14 @@
       <c r="H62" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="M62" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="O62" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>63</v>
       </c>
@@ -5459,13 +5883,13 @@
         <v>190</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>195</v>
@@ -5477,13 +5901,16 @@
         <v>244</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+        <v>675</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>64</v>
       </c>
@@ -5494,7 +5921,7 @@
         <v>247</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>249</v>
@@ -5506,22 +5933,28 @@
         <v>253</v>
       </c>
       <c r="L64" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="P64" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="M64" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="O64" s="5" t="s">
+      <c r="Q64" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="P64" s="5" t="s">
+      <c r="R64" s="5" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -5532,7 +5965,7 @@
         <v>251</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F65" s="12" t="s">
         <v>252</v>
@@ -5547,24 +5980,30 @@
         <v>264</v>
       </c>
       <c r="M65" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="N65" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="O65" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="P65" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="O65" s="5" t="s">
+      <c r="Q65" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>66</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>50</v>
@@ -5576,162 +6015,162 @@
       <c r="H66" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="P66" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M66" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q66" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>67</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F67" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="G67" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="L67" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="L67" s="5" t="s">
+      <c r="M67" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="P67" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="O67" s="5" t="s">
+      <c r="Q67" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="P67" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>68</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C68" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="E68" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F68" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>328</v>
-      </c>
       <c r="G68" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="P68" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="Q68" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="R68" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="M68" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>69</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C69" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F69" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>330</v>
-      </c>
       <c r="G69" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="O69" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="P69" s="5" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q69" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>70</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F70" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>332</v>
-      </c>
       <c r="G70" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="H70" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="P70" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="S70" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L70" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="M70" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="O70" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>71</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>50</v>
@@ -5743,264 +6182,276 @@
       <c r="H71" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="P71" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M71" s="4" t="s">
+      <c r="Q71" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="R71" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>72</v>
       </c>
       <c r="B72" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="U72" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="G72" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I72" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="L72" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="M72" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="O72" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="P72" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q72" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <v>73</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="E73" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="P73" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="I73" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="L73" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="M73" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q73" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <v>74</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="P74" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q74" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <v>75</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="L75" s="5" t="s">
-        <v>378</v>
+        <v>565</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="N75" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="P75" s="5" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R75" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <v>76</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="H76" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>568</v>
-      </c>
-      <c r="L76" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="N76" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <v>77</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="E77" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F77" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>367</v>
-      </c>
       <c r="H77" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.4">
+        <v>380</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <v>78</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="E78" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F78" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="E78" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F78" s="12" t="s">
+      <c r="H78" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="H78" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="I78" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <v>79</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>50</v>
@@ -6012,415 +6463,445 @@
       <c r="H79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L79" s="4" t="s">
+      <c r="P79" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="M79" s="4" t="s">
+      <c r="Q79" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="R79" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="N79" s="4" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <v>80</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G80" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="P80" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="H80" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="L80" s="5" t="s">
+      <c r="Q80" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="M80" s="5" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <v>81</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="H81" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M81" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="N81" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="Q81" s="5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>82</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>83</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F83" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>402</v>
-      </c>
       <c r="H83" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M83" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="N83" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="O83" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P83" s="5" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q83" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>84</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C84" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F84" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>404</v>
-      </c>
       <c r="G84" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M84" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="N84" s="5" t="s">
         <v>423</v>
       </c>
       <c r="O84" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="T84" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="P84" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q84" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="R84" s="5" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>85</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="E85" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>406</v>
-      </c>
       <c r="G85" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M85" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="R85" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="N85" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>86</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L86" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="M86" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="T86" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="M86" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="N86" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="O86" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="P86" s="5" t="s">
+      <c r="U86" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="Q86" s="5" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>87</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C87" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F87" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="E87" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>409</v>
-      </c>
       <c r="G87" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H87" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="M87" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q87" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="R87" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="I87" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="J87" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="L87" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="M87" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="N87" s="5" t="s">
+      <c r="T87" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="P87" s="5" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <v>88</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C88" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F88" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="E88" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>411</v>
-      </c>
       <c r="G88" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M88" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="P88" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="N88" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="O88" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="P88" s="5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q88" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="R88" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>89</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F89" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>413</v>
-      </c>
       <c r="G89" s="5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>447</v>
+      </c>
+      <c r="M89" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="R89" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <v>90</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>50</v>
@@ -6429,605 +6910,614 @@
       <c r="H90" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L90" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="P90" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <v>91</v>
       </c>
       <c r="B91" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q91" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="I91" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="L91" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="N91" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="O91" s="5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R91" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>92</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K92" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="L92" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="N92" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+        <v>496</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q92" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="R92" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <v>93</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K93" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="L93" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M93" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="N93" s="5" t="s">
-        <v>521</v>
-      </c>
       <c r="O93" s="5" t="s">
         <v>520</v>
       </c>
       <c r="P93" s="5" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+        <v>517</v>
+      </c>
+      <c r="R93" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <v>94</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D94" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F94" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>466</v>
-      </c>
       <c r="G94" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J94" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="M94" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="P94" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="K94" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="L94" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="M94" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="N94" s="5" t="s">
+      <c r="Q94" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="O94" s="5" t="s">
-        <v>531</v>
-      </c>
       <c r="R94" s="5" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+        <v>529</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <v>95</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F95" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>467</v>
-      </c>
       <c r="G95" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K95" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="L95" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="M95" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q95" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="R95" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="N95" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <v>96</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="L96" s="5" t="s">
         <v>533</v>
       </c>
       <c r="M96" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="O96" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q96" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="N96" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="O96" s="5" t="s">
+      <c r="R96" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="S96" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="P96" s="5" t="s">
+      <c r="T96" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="Q96" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="R96" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>97</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
+        <v>507</v>
+      </c>
+      <c r="Q97" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <v>98</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="R98" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
+        <v>508</v>
+      </c>
+      <c r="Q98" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <v>99</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="L99" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="M99" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="P99" s="5" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="Q99" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <v>100</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I100" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="M100" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q100" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="R100" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="L100" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="M100" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="N100" s="5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <v>101</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="L101" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q101" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="R101" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="M101" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="N101" s="5" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>102</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="E102" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F102" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q102" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="R102" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="G102" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="L102" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="M102" s="5" t="s">
+      <c r="T102" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="N102" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="P102" s="5" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <v>103</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C103" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F103" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>486</v>
-      </c>
       <c r="G103" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="M103" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q103" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="R103" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="N103" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="P103" s="5" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="T103" s="5" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <v>104</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>487</v>
-      </c>
       <c r="G104" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <v>105</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H105" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q105" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="I105" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="M105" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="N105" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="O105" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="P105" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="R105" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="S105" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="T105" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>106</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <v>107</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <v>108</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>50</v>
@@ -7036,64 +7526,64 @@
       <c r="H108" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L108" s="4" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P108" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <v>109</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F109" s="11"/>
     </row>
-    <row r="110" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>110</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F110" s="11"/>
     </row>
-    <row r="111" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
         <v>111</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F111" s="11"/>
     </row>
-    <row r="112" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
         <v>112</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>50</v>
@@ -7105,10 +7595,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>50</v>
@@ -7120,10 +7610,10 @@
         <v>114</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>50</v>
@@ -7135,10 +7625,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>50</v>
@@ -7150,10 +7640,10 @@
         <v>116</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>50</v>
@@ -7165,10 +7655,10 @@
         <v>117</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>50</v>
@@ -7180,10 +7670,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>50</v>
@@ -7195,10 +7685,10 @@
         <v>119</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>50</v>
@@ -7210,10 +7700,10 @@
         <v>120</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>50</v>
@@ -7225,10 +7715,10 @@
         <v>121</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>50</v>
@@ -7240,10 +7730,10 @@
         <v>122</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>50</v>
@@ -7255,10 +7745,10 @@
         <v>123</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>50</v>
@@ -7270,10 +7760,10 @@
         <v>124</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>50</v>
@@ -7285,10 +7775,10 @@
         <v>125</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>50</v>
@@ -7300,10 +7790,10 @@
         <v>126</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>50</v>
@@ -7315,10 +7805,10 @@
         <v>127</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>50</v>
@@ -7330,10 +7820,10 @@
         <v>128</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>50</v>
@@ -7345,10 +7835,10 @@
         <v>129</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>50</v>
@@ -7360,10 +7850,10 @@
         <v>130</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>50</v>
@@ -7375,10 +7865,10 @@
         <v>131</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>50</v>
@@ -7390,10 +7880,10 @@
         <v>132</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
@@ -7401,10 +7891,10 @@
         <v>133</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
@@ -7412,10 +7902,10 @@
         <v>134</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
@@ -7423,10 +7913,10 @@
         <v>135</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
@@ -7434,10 +7924,10 @@
         <v>136</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
@@ -7445,10 +7935,10 @@
         <v>137</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -7456,10 +7946,10 @@
         <v>138</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
@@ -7467,10 +7957,10 @@
         <v>139</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
@@ -7478,10 +7968,10 @@
         <v>140</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
@@ -7489,10 +7979,10 @@
         <v>141</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
@@ -7500,10 +7990,10 @@
         <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
@@ -7511,10 +8001,10 @@
         <v>143</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
@@ -7522,10 +8012,10 @@
         <v>144</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.4">
@@ -7533,10 +8023,10 @@
         <v>145</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.4">
@@ -7544,10 +8034,10 @@
         <v>146</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.4">
@@ -7555,10 +8045,10 @@
         <v>147</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.4">
@@ -7566,10 +8056,10 @@
         <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.4">
@@ -7577,10 +8067,10 @@
         <v>149</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.4">
@@ -7588,10 +8078,10 @@
         <v>150</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.4">
@@ -7599,10 +8089,10 @@
         <v>151</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.4">
@@ -7610,10 +8100,10 @@
         <v>152</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.4">
@@ -7621,10 +8111,10 @@
         <v>153</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E153" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.4">
@@ -7632,10 +8122,10 @@
         <v>154</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.4">
@@ -7643,10 +8133,10 @@
         <v>155</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.4">
@@ -7654,10 +8144,10 @@
         <v>156</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.4">
@@ -7665,10 +8155,10 @@
         <v>157</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.4">
@@ -7676,10 +8166,10 @@
         <v>158</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E158" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.4">
@@ -7687,10 +8177,10 @@
         <v>159</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.4">
@@ -7698,10 +8188,10 @@
         <v>160</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E160" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.4">
@@ -7709,10 +8199,10 @@
         <v>161</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/design/単語集.xlsx
+++ b/design/単語集.xlsx
@@ -8,24 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\maz\git\emo-gs\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F59408-ED22-4929-AF40-579491AC1E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096B8782-BF4C-4E72-A936-78D966F19A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="37695" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="45348" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="905">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -3262,6 +3270,776 @@
     <t>#XXXが出来る</t>
     <rPh sb="5" eb="7">
       <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご注文はうさぎですか?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごちうさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ココア</t>
+  </si>
+  <si>
+    <t>佐倉綾音</t>
+  </si>
+  <si>
+    <t>保登心愛</t>
+  </si>
+  <si>
+    <t>香風智乃</t>
+  </si>
+  <si>
+    <t>チノ</t>
+  </si>
+  <si>
+    <t>水瀬いのり</t>
+  </si>
+  <si>
+    <t>リゼ</t>
+  </si>
+  <si>
+    <t>天々座理世</t>
+  </si>
+  <si>
+    <t>種田梨沙</t>
+  </si>
+  <si>
+    <t>千夜</t>
+  </si>
+  <si>
+    <t>宇治松千夜</t>
+  </si>
+  <si>
+    <t>佐藤聡美</t>
+  </si>
+  <si>
+    <t>シャロ</t>
+  </si>
+  <si>
+    <t>桐間紗路</t>
+  </si>
+  <si>
+    <t>内田真礼</t>
+  </si>
+  <si>
+    <t>マヤ</t>
+  </si>
+  <si>
+    <t>条河麻耶</t>
+  </si>
+  <si>
+    <t>徳井青空</t>
+  </si>
+  <si>
+    <t>メグ</t>
+  </si>
+  <si>
+    <t>奈津恵</t>
+  </si>
+  <si>
+    <t>村川梨衣</t>
+  </si>
+  <si>
+    <t>青山ブルーマウンテン</t>
+  </si>
+  <si>
+    <t>青山翠</t>
+  </si>
+  <si>
+    <t>早見沙織</t>
+  </si>
+  <si>
+    <t>チマメ隊</t>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラビットハウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学生</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小説家</t>
+    <rPh sb="0" eb="3">
+      <t>ショウセツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘兎庵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フルール・ド・ラパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイテンションに酔うこと</t>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お嬢様学校</t>
+    <rPh sb="1" eb="3">
+      <t>ジョウサマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘兎庵のお隣どうし</t>
+    <rPh sb="5" eb="6">
+      <t>トナリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木組みの街</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天真爛漫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>快活</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>涙もろい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱ぐとすごい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉食系女子</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>うぇるかむかもーん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事案</t>
+    <rPh sb="0" eb="2">
+      <t>ジアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チノココア姉妹</t>
+    <rPh sb="5" eb="7">
+      <t>シマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールで大人しい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒーの銘柄当て</t>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒー嗅ぎ</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>器用</t>
+    <rPh sb="0" eb="2">
+      <t>キヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぬいぐるみ作り</t>
+    <rPh sb="5" eb="6">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縫い物</t>
+    <rPh sb="0" eb="1">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暴漢を制圧すること</t>
+    <rPh sb="0" eb="2">
+      <t>ボウカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失せろ！</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カフェイン酔い</t>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カフェ・ド・マンシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーヒー占い</t>
+    <rPh sb="4" eb="5">
+      <t>ウラナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイハリセン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つっこみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボケ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豊胸</t>
+    <rPh sb="0" eb="2">
+      <t>ホウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腹話術</t>
+    <rPh sb="0" eb="3">
+      <t>フクワジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ティッピー語り</t>
+    <rPh sb="5" eb="6">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軍属</t>
+    <rPh sb="0" eb="2">
+      <t>グンゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り込み隊長</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピルエット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片足旋回</t>
+    <rPh sb="0" eb="2">
+      <t>カタアシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>くりゅくりゅくりゅり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐるぐるバット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>形容詞</t>
+  </si>
+  <si>
+    <t>＃と♯の違いが分かってない</t>
+  </si>
+  <si>
+    <t>2000円札並に役に立たない</t>
+  </si>
+  <si>
+    <t>AIRで言う佳乃と同じくらい人気がない</t>
+  </si>
+  <si>
+    <t>JVM並に遅い</t>
+  </si>
+  <si>
+    <t>あなどれない</t>
+  </si>
+  <si>
+    <t>いてもいなくてもいい</t>
+  </si>
+  <si>
+    <t>ウザい</t>
+  </si>
+  <si>
+    <t>エロい</t>
+  </si>
+  <si>
+    <t>エンゲル係数高い</t>
+  </si>
+  <si>
+    <t>お茶の水博士並に鼻がデカい</t>
+  </si>
+  <si>
+    <t>かわいい</t>
+  </si>
+  <si>
+    <t>ガンタンクっぽい</t>
+  </si>
+  <si>
+    <t>ゲーマーズのカフェ並にやる気ない</t>
+  </si>
+  <si>
+    <t>シスプリアニメ並にやる気がない</t>
+  </si>
+  <si>
+    <t>デカい</t>
+  </si>
+  <si>
+    <t>プラクティスモードを抜けるのにリセットするしかない</t>
+  </si>
+  <si>
+    <t>プラセボ効果に陥りやすい</t>
+  </si>
+  <si>
+    <t>むし歯の原因となる酸を作らない</t>
+  </si>
+  <si>
+    <t>ヤバい</t>
+  </si>
+  <si>
+    <t>やる気はあるんだけど実力が伴ってない</t>
+  </si>
+  <si>
+    <t>リアルすぎて笑えない</t>
+  </si>
+  <si>
+    <t>奥まで入らない</t>
+  </si>
+  <si>
+    <t>何となくエッチくさい</t>
+  </si>
+  <si>
+    <t>回転する寿司には興味がない</t>
+  </si>
+  <si>
+    <t>寒い</t>
+  </si>
+  <si>
+    <t>危ない</t>
+  </si>
+  <si>
+    <t>忌々しい</t>
+  </si>
+  <si>
+    <t>気象予報士っぽい</t>
+  </si>
+  <si>
+    <t>金八先生の説教と同じくらい説得力がない</t>
+  </si>
+  <si>
+    <t>限りなく真円に近い</t>
+  </si>
+  <si>
+    <t>児戯に等しい</t>
+  </si>
+  <si>
+    <t>自分を省みることを知らない</t>
+  </si>
+  <si>
+    <t>釈由美子のCDなみに聞いてられない</t>
+  </si>
+  <si>
+    <t>暑苦しい</t>
+  </si>
+  <si>
+    <t>宵越しの金は持たない</t>
+  </si>
+  <si>
+    <t>小さい</t>
+  </si>
+  <si>
+    <t>心が狭い</t>
+  </si>
+  <si>
+    <t>新500円硬貨並に役に立たない</t>
+  </si>
+  <si>
+    <t>脆い</t>
+  </si>
+  <si>
+    <t>説教くさい</t>
+  </si>
+  <si>
+    <t>他人の作ったものに文句は言うが自分では何も作る能力がない</t>
+  </si>
+  <si>
+    <t>対空性能が高い</t>
+  </si>
+  <si>
+    <t>長沢美樹の歌唱力並にいただけない</t>
+  </si>
+  <si>
+    <t>痛い</t>
+  </si>
+  <si>
+    <t>都営大江戸線とドラえもん並に関係ない</t>
+  </si>
+  <si>
+    <t>頭が悪い</t>
+  </si>
+  <si>
+    <t>薄い</t>
+  </si>
+  <si>
+    <t>浜崎あゆみの無理なキャラクター付け並に見てられない</t>
+  </si>
+  <si>
+    <t>粉っぽい</t>
+  </si>
+  <si>
+    <t>無駄なパンチラが多い</t>
+  </si>
+  <si>
+    <t>洒落にならない</t>
+  </si>
+  <si>
+    <t>動詞</t>
+  </si>
+  <si>
+    <t>あ行五段</t>
+  </si>
+  <si>
+    <t>残り少ないシャンプーを水で薄めて使う</t>
+  </si>
+  <si>
+    <t>神戸屋でみかんを買う</t>
+  </si>
+  <si>
+    <t>裏工作でアクワイアから天誅を奪う</t>
+  </si>
+  <si>
+    <t>か行五段</t>
+  </si>
+  <si>
+    <t>Coreを吐く</t>
+  </si>
+  <si>
+    <t>スキンビットマップをぶっこ抜く</t>
+  </si>
+  <si>
+    <t>ビビりゲロ吐く</t>
+  </si>
+  <si>
+    <t>寝ゲロ吐く</t>
+  </si>
+  <si>
+    <t>前作が売れてないのに続編を作ると息巻く</t>
+  </si>
+  <si>
+    <t>大手サークルに製作物を献上しに行く</t>
+  </si>
+  <si>
+    <t>長大なSQL文を素手で書く</t>
+  </si>
+  <si>
+    <t>売れない小説を書く</t>
+  </si>
+  <si>
+    <t>さ行五段</t>
+  </si>
+  <si>
+    <t>「萌え萌え」とか言ってるカスどもを燃やす</t>
+  </si>
+  <si>
+    <t>Iriaで2GB落とす</t>
+  </si>
+  <si>
+    <t>ちゃぶ台をひっくり返す</t>
+  </si>
+  <si>
+    <t>てんかんを起こす</t>
+  </si>
+  <si>
+    <t>安っぽい正義感を振りかざす</t>
+  </si>
+  <si>
+    <t>過充電で電池を壊す</t>
+  </si>
+  <si>
+    <t>串を通す</t>
+  </si>
+  <si>
+    <t>死ぬ気で乳首を隠す</t>
+  </si>
+  <si>
+    <t>単位落とす</t>
+  </si>
+  <si>
+    <t>通行人をバッサバッサと斬り倒す</t>
+  </si>
+  <si>
+    <t>特に意味もなく掲示板を荒らす</t>
+  </si>
+  <si>
+    <t>燃える実家の前で呆然と立ちつくす</t>
+  </si>
+  <si>
+    <t>燃やす</t>
+  </si>
+  <si>
+    <t>背中から刺す</t>
+  </si>
+  <si>
+    <t>変なジュース探す</t>
+  </si>
+  <si>
+    <t>放射性物質を撒き散らす</t>
+  </si>
+  <si>
+    <t>さ行変格</t>
+  </si>
+  <si>
+    <t>サークルチケットを取り溜めする</t>
+  </si>
+  <si>
+    <t>野犬の交尾を邪魔する</t>
+  </si>
+  <si>
+    <t>た行五段</t>
+  </si>
+  <si>
+    <t>バントでホームランを打つ</t>
+  </si>
+  <si>
+    <t>左ターボマシンガン撃つ</t>
+  </si>
+  <si>
+    <t>な行五段</t>
+  </si>
+  <si>
+    <t>モチを詰まらせて死ぬ</t>
+  </si>
+  <si>
+    <t>ま行五段</t>
+  </si>
+  <si>
+    <t>サラダバーにこっそりたいやきを仕込む</t>
+  </si>
+  <si>
+    <t>ら行五段</t>
+  </si>
+  <si>
+    <t>100台納入すると5台は初期不良がある</t>
+  </si>
+  <si>
+    <t>70億もかけてクソゲー作る</t>
+  </si>
+  <si>
+    <t>ウインビー国民的アイドル化計画並に無理がある</t>
+  </si>
+  <si>
+    <t>ぎょう虫検査に引っかかる</t>
+  </si>
+  <si>
+    <t>パクる</t>
+  </si>
+  <si>
+    <t>ぴったり閉じる</t>
+  </si>
+  <si>
+    <t>ブスを蹴ってエネルギーを溜める</t>
+  </si>
+  <si>
+    <t>ベッドの下のエロ本がある日突然なくなる</t>
+  </si>
+  <si>
+    <t>マルチポストで煽る</t>
+  </si>
+  <si>
+    <t>みかん汁なしであぶり出しを見破る</t>
+  </si>
+  <si>
+    <t>メイっぱい頑張る</t>
+  </si>
+  <si>
+    <t>家族に隠れてギャルゲーをやる</t>
+  </si>
+  <si>
+    <t>視力検査をカンで乗り切る</t>
+  </si>
+  <si>
+    <t>首の骨を2～3本叩き折る</t>
+  </si>
+  <si>
+    <t>秋葉原で海賊版CDを売る</t>
+  </si>
+  <si>
+    <t>傷口に塩を塗る</t>
+  </si>
+  <si>
+    <t>煽る</t>
+  </si>
+  <si>
+    <t>体育会系教師特有の根拠のない根性論を語る</t>
+  </si>
+  <si>
+    <t>鉄砲玉を送る</t>
+  </si>
+  <si>
+    <t>汝のあるべき姿に戻る</t>
+  </si>
+  <si>
+    <t>膝の皿を割る</t>
+  </si>
+  <si>
+    <t>棒で殴る</t>
+  </si>
+  <si>
+    <t>靱帯を切る</t>
+  </si>
+  <si>
+    <t>下一段</t>
+  </si>
+  <si>
+    <t>コナミに訴えられる</t>
+  </si>
+  <si>
+    <t>デッサン狂ってる</t>
+  </si>
+  <si>
+    <t>ぴったり閉じてる</t>
+  </si>
+  <si>
+    <t>何か勘違いしてる</t>
+  </si>
+  <si>
+    <t>何もかも忘れる</t>
+  </si>
+  <si>
+    <t>家の柱に延々と頭を打ち付ける</t>
+  </si>
+  <si>
+    <t>泣きゃいいと思ってる</t>
+  </si>
+  <si>
+    <t>殺意の波動に目覚める</t>
+  </si>
+  <si>
+    <t>重力に魂を引かれてる</t>
+  </si>
+  <si>
+    <t>初潮を迎える</t>
+  </si>
+  <si>
+    <t>精神的な揺さぶりをかける</t>
+  </si>
+  <si>
+    <t>赤く塗れば何でもシャア専用だと思ってる</t>
+  </si>
+  <si>
+    <t>電車のドアに挟まれる</t>
+  </si>
+  <si>
+    <t>土下座して詫びを入れる</t>
+  </si>
+  <si>
+    <t>瞳孔が散大してる</t>
+  </si>
+  <si>
+    <t>瞳孔開いてる</t>
+  </si>
+  <si>
+    <t>買ったばかりの3ヶ月定期を落として途方に暮れる</t>
+  </si>
+  <si>
+    <t>偏執的なref抜きでサーバに負担をかける</t>
+  </si>
+  <si>
+    <t>上一段</t>
+  </si>
+  <si>
+    <t>契約の元さくらが命じる</t>
+  </si>
+  <si>
+    <t>動詞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>か行四段</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やうやう白くなりゆく</t>
+  </si>
+  <si>
+    <t>大阪</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3270,7 +4048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3303,6 +4081,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3391,7 +4177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -3415,6 +4201,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3695,40 +4485,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U161"/>
+  <dimension ref="A1:U297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.33203125" defaultRowHeight="17.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="22.36328125" defaultRowHeight="18.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="22.33203125" style="5"/>
+    <col min="1" max="1" width="3.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="15.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.36328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="22.36328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -3793,7 +4582,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -3814,7 +4603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -3837,7 +4626,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>4</v>
       </c>
@@ -3860,7 +4649,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>5</v>
       </c>
@@ -3883,7 +4672,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>6</v>
       </c>
@@ -3906,7 +4695,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -3947,7 +4736,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -3988,7 +4777,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>9</v>
       </c>
@@ -4029,7 +4818,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>10</v>
       </c>
@@ -4070,7 +4859,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>11</v>
       </c>
@@ -4111,7 +4900,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>12</v>
       </c>
@@ -4152,7 +4941,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>13</v>
       </c>
@@ -4193,7 +4982,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>14</v>
       </c>
@@ -4229,7 +5018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>15</v>
       </c>
@@ -4255,7 +5044,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>16</v>
       </c>
@@ -4281,7 +5070,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>17</v>
       </c>
@@ -4315,7 +5104,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>18</v>
       </c>
@@ -4368,7 +5157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>19</v>
       </c>
@@ -4403,7 +5192,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -4444,7 +5233,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>21</v>
       </c>
@@ -4485,7 +5274,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>22</v>
       </c>
@@ -4517,7 +5306,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>23</v>
       </c>
@@ -4546,7 +5335,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>24</v>
       </c>
@@ -4581,7 +5370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <v>25</v>
       </c>
@@ -4601,13 +5390,13 @@
         <v>101</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>502</v>
+        <v>904</v>
       </c>
       <c r="Q25" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <v>26</v>
       </c>
@@ -4622,7 +5411,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <v>27</v>
       </c>
@@ -4654,7 +5443,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <v>28</v>
       </c>
@@ -4686,7 +5475,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <v>29</v>
       </c>
@@ -4715,7 +5504,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <v>30</v>
       </c>
@@ -4744,7 +5533,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <v>31</v>
       </c>
@@ -4773,7 +5562,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <v>32</v>
       </c>
@@ -4800,7 +5589,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>33</v>
       </c>
@@ -4844,7 +5633,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>34</v>
       </c>
@@ -4888,7 +5677,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>35</v>
       </c>
@@ -4935,7 +5724,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>36</v>
       </c>
@@ -4982,7 +5771,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <v>37</v>
       </c>
@@ -5029,7 +5818,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <v>38</v>
       </c>
@@ -5076,7 +5865,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <v>39</v>
       </c>
@@ -5123,7 +5912,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -5153,7 +5942,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -5203,7 +5992,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <v>42</v>
       </c>
@@ -5229,7 +6018,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
         <v>43</v>
       </c>
@@ -5273,7 +6062,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
         <v>44</v>
       </c>
@@ -5308,7 +6097,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
         <v>45</v>
       </c>
@@ -5337,7 +6126,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
         <v>46</v>
       </c>
@@ -5375,7 +6164,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <v>47</v>
       </c>
@@ -5401,7 +6190,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <v>48</v>
       </c>
@@ -5433,7 +6222,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3">
         <v>49</v>
       </c>
@@ -5465,7 +6254,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3">
         <v>50</v>
       </c>
@@ -5494,7 +6283,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3">
         <v>51</v>
       </c>
@@ -5523,7 +6312,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3">
         <v>52</v>
       </c>
@@ -5555,7 +6344,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
         <v>53</v>
       </c>
@@ -5581,7 +6370,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
         <v>54</v>
       </c>
@@ -5607,7 +6396,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
         <v>55</v>
       </c>
@@ -5633,7 +6422,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
         <v>56</v>
       </c>
@@ -5665,7 +6454,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
         <v>57</v>
       </c>
@@ -5709,7 +6498,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <v>58</v>
       </c>
@@ -5750,7 +6539,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <v>59</v>
       </c>
@@ -5782,7 +6571,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <v>60</v>
       </c>
@@ -5817,7 +6606,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <v>61</v>
       </c>
@@ -5846,7 +6635,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
         <v>62</v>
       </c>
@@ -5875,7 +6664,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
         <v>63</v>
       </c>
@@ -5910,7 +6699,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
         <v>64</v>
       </c>
@@ -5954,7 +6743,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
         <v>65</v>
       </c>
@@ -5995,7 +6784,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
         <v>66</v>
       </c>
@@ -6022,7 +6811,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
         <v>67</v>
       </c>
@@ -6063,7 +6852,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
         <v>68</v>
       </c>
@@ -6095,7 +6884,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
         <v>69</v>
       </c>
@@ -6127,7 +6916,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
         <v>70</v>
       </c>
@@ -6162,7 +6951,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
         <v>71</v>
       </c>
@@ -6192,7 +6981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
         <v>72</v>
       </c>
@@ -6248,7 +7037,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <v>73</v>
       </c>
@@ -6280,7 +7069,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
         <v>74</v>
       </c>
@@ -6312,7 +7101,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
         <v>75</v>
       </c>
@@ -6350,7 +7139,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
         <v>76</v>
       </c>
@@ -6382,7 +7171,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
         <v>77</v>
       </c>
@@ -6414,7 +7203,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
         <v>78</v>
       </c>
@@ -6443,7 +7232,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3">
         <v>79</v>
       </c>
@@ -6473,7 +7262,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="3">
         <v>80</v>
       </c>
@@ -6508,7 +7297,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="3">
         <v>81</v>
       </c>
@@ -6543,7 +7332,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="3">
         <v>82</v>
       </c>
@@ -6564,7 +7353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3">
         <v>83</v>
       </c>
@@ -6608,7 +7397,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3">
         <v>84</v>
       </c>
@@ -6664,7 +7453,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
         <v>85</v>
       </c>
@@ -6708,7 +7497,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
         <v>86</v>
       </c>
@@ -6761,7 +7550,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
         <v>87</v>
       </c>
@@ -6808,7 +7597,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <v>88</v>
       </c>
@@ -6855,7 +7644,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
         <v>89</v>
       </c>
@@ -6893,7 +7682,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
         <v>90</v>
       </c>
@@ -6914,7 +7703,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
         <v>91</v>
       </c>
@@ -6952,7 +7741,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
         <v>92</v>
       </c>
@@ -6990,7 +7779,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3">
         <v>93</v>
       </c>
@@ -7037,7 +7826,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3">
         <v>94</v>
       </c>
@@ -7087,7 +7876,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3">
         <v>95</v>
       </c>
@@ -7125,7 +7914,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
         <v>96</v>
       </c>
@@ -7172,7 +7961,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3">
         <v>97</v>
       </c>
@@ -7201,7 +7990,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3">
         <v>98</v>
       </c>
@@ -7230,7 +8019,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3">
         <v>99</v>
       </c>
@@ -7262,7 +8051,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3">
         <v>100</v>
       </c>
@@ -7297,7 +8086,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3">
         <v>101</v>
       </c>
@@ -7329,7 +8118,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3">
         <v>102</v>
       </c>
@@ -7367,7 +8156,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3">
         <v>103</v>
       </c>
@@ -7402,7 +8191,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3">
         <v>104</v>
       </c>
@@ -7425,7 +8214,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3">
         <v>105</v>
       </c>
@@ -7463,7 +8252,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3">
         <v>106</v>
       </c>
@@ -7486,7 +8275,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3">
         <v>107</v>
       </c>
@@ -7509,700 +8298,2693 @@
         <v>515</v>
       </c>
     </row>
-    <row r="108" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="3">
-        <v>108</v>
-      </c>
+    <row r="108" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="17"/>
       <c r="B108" s="14" t="s">
-        <v>570</v>
+        <v>696</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>568</v>
+        <v>695</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F108" s="11"/>
+      <c r="G108" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H108" s="4" t="s">
         <v>2</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="3">
-        <v>109</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>594</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F109" s="11"/>
-    </row>
-    <row r="110" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="3">
-        <v>110</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>595</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F110" s="11"/>
-    </row>
-    <row r="111" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="3">
-        <v>111</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>596</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F111" s="11"/>
-    </row>
-    <row r="112" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="3">
-        <v>112</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="3">
-        <v>113</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>593</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F113" s="11"/>
-    </row>
-    <row r="114" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="3">
-        <v>114</v>
-      </c>
-      <c r="B114" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F114" s="11"/>
-    </row>
-    <row r="115" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="3">
-        <v>115</v>
-      </c>
-      <c r="B115" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F115" s="11"/>
-    </row>
-    <row r="116" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="3">
-        <v>116</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F116" s="11"/>
-    </row>
-    <row r="117" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C109" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="M109" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="O109" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="Q109" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="R109" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="S109" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="T109" s="5" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="O110" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q110" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="O111" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="R111" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="C112" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="M112" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="O112" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C113" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="M113" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="O113" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C114" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="M114" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C115" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="M115" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="O115" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="E116" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F117" s="11"/>
-    </row>
-    <row r="118" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H117" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P117" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F118" s="11"/>
     </row>
-    <row r="119" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F119" s="11"/>
     </row>
-    <row r="120" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F120" s="11"/>
     </row>
-    <row r="121" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="E121" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F121" s="11"/>
     </row>
-    <row r="122" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="E122" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F122" s="11"/>
     </row>
-    <row r="123" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>606</v>
+        <v>571</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="E123" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F123" s="11"/>
     </row>
-    <row r="124" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E124" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F124" s="11"/>
     </row>
-    <row r="125" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E125" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F125" s="11"/>
     </row>
-    <row r="126" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F126" s="11"/>
     </row>
-    <row r="127" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F127" s="11"/>
     </row>
-    <row r="128" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F128" s="11"/>
     </row>
-    <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F129" s="11"/>
     </row>
-    <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F130" s="11"/>
     </row>
-    <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F131" s="11"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3">
+        <v>123</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="3">
+        <v>124</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="3">
+        <v>125</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="3">
+        <v>126</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="3">
+        <v>127</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F136" s="11"/>
+    </row>
+    <row r="137" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="3">
+        <v>128</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="3">
+        <v>129</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="3">
+        <v>130</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="3">
+        <v>131</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="3">
         <v>132</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C141" s="5" t="s">
         <v>624</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
-        <v>133</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
-        <v>134</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
-        <v>135</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
-        <v>136</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
-        <v>137</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
-        <v>138</v>
-      </c>
-      <c r="C138" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
-        <v>139</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
-        <v>140</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
-        <v>141</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>632</v>
       </c>
       <c r="E141" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="3">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E143" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="3">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="E144" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="3">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="3">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E146" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="3">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="E147" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E148" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="3">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E149" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="3">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E150" s="9" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3">
+        <v>142</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="3">
+        <v>143</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="E152" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="3">
+        <v>144</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="3">
+        <v>145</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E154" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="3">
+        <v>146</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="3">
+        <v>147</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="3">
+        <v>148</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="3">
+        <v>149</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="3">
+        <v>150</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E159" s="9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="3">
         <v>151</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>644</v>
-      </c>
-      <c r="E151" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152" s="3">
-        <v>152</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="E152" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A153" s="3">
-        <v>153</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="E153" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A154" s="3">
-        <v>154</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E154" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155" s="3">
-        <v>155</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156" s="3">
-        <v>156</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A157" s="3">
-        <v>157</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158" s="3">
-        <v>158</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A159" s="3">
-        <v>159</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A160" s="3">
-        <v>160</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="E160" s="9" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="3">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="E161" s="9" t="s">
         <v>643</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="3">
+        <v>153</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="E162" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="3">
+        <v>154</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="3">
+        <v>155</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E164" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="3">
+        <v>156</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="3">
+        <v>157</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E166" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="3">
+        <v>158</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="3">
+        <v>159</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E168" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="3">
+        <v>160</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="3">
+        <v>161</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="3">
+        <v>162</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E171" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="3">
+        <v>163</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E172" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="3">
+        <v>164</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="E173" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="3">
+        <v>165</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="3">
+        <v>166</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="3">
+        <v>167</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="3">
+        <v>168</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="3">
+        <v>169</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="3">
+        <v>170</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="3">
+        <v>171</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="3">
+        <v>172</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="3">
+        <v>173</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E182" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="3">
+        <v>174</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="3">
+        <v>175</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E184" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="3">
+        <v>176</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="E185" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="3">
+        <v>177</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E186" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="3">
+        <v>178</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="3">
+        <v>179</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E188" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="3">
+        <v>180</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="E189" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="3">
+        <v>181</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E190" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="3">
+        <v>182</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E191" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="3">
+        <v>183</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="3">
+        <v>184</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="E193" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="3">
+        <v>185</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E194" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="3">
+        <v>186</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E195" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="3">
+        <v>187</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E196" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="3">
+        <v>188</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E197" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="3">
+        <v>189</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E198" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="3">
+        <v>190</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E199" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="3">
+        <v>191</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="3">
+        <v>192</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="E201" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A202" s="3">
+        <v>193</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E202" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A203" s="3">
+        <v>194</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A204" s="3">
+        <v>195</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A205" s="3">
+        <v>196</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E205" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A206" s="3">
+        <v>197</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E206" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A207" s="3">
+        <v>198</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E207" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A208" s="3">
+        <v>199</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E208" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A209" s="3">
+        <v>200</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E209" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A210" s="3">
+        <v>201</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A211" s="3">
+        <v>202</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A212" s="3">
+        <v>203</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E212" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A213" s="3">
+        <v>204</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E213" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A214" s="3">
+        <v>205</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A215" s="3">
+        <v>206</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A216" s="3">
+        <v>207</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E216" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A217" s="3">
+        <v>208</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E217" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A218" s="3">
+        <v>209</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E218" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A219" s="3">
+        <v>210</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="E219" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A220" s="3">
+        <v>211</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E220" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A221" s="3">
+        <v>212</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E221" s="9" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A222" s="3">
+        <v>213</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E222" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="G222" s="12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A223" s="3">
+        <v>214</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E223" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G223" s="12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A224" s="3">
+        <v>215</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="E224" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G224" s="12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A225" s="3">
+        <v>216</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="E225" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G225" s="12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A226" s="3">
+        <v>217</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="E226" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G226" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A227" s="3">
+        <v>218</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E227" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G227" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A228" s="3">
+        <v>219</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E228" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G228" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A229" s="3">
+        <v>220</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G229" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A230" s="3">
+        <v>221</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E230" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G230" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A231" s="3">
+        <v>222</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="E231" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G231" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A232" s="3">
+        <v>223</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E232" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G232" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A233" s="3">
+        <v>224</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E233" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G233" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A234" s="3">
+        <v>225</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E234" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G234" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A235" s="3">
+        <v>226</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="E235" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G235" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A236" s="3">
+        <v>227</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="E236" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G236" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A237" s="3">
+        <v>228</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="E237" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A238" s="3">
+        <v>229</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A239" s="3">
+        <v>230</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="E239" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A240" s="3">
+        <v>231</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="E240" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G240" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A241" s="3">
+        <v>232</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G241" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A242" s="3">
+        <v>233</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E242" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G242" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A243" s="3">
+        <v>234</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G243" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A244" s="3">
+        <v>235</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E244" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G244" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A245" s="3">
+        <v>236</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G245" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A246" s="3">
+        <v>237</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E246" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G246" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A247" s="3">
+        <v>238</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="E247" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G247" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A248" s="3">
+        <v>239</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E248" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G248" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A249" s="3">
+        <v>240</v>
+      </c>
+      <c r="C249" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="E249" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="G249" s="12" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A250" s="3">
+        <v>241</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E250" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F250" s="5"/>
+      <c r="G250" s="12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A251" s="3">
+        <v>242</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E251" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F251" s="5"/>
+      <c r="G251" s="12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A252" s="3">
+        <v>243</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E252" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F252" s="5"/>
+      <c r="G252" s="12" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A253" s="3">
+        <v>244</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E253" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F253" s="5"/>
+      <c r="G253" s="12" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A254" s="3">
+        <v>245</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="E254" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F254" s="5"/>
+      <c r="G254" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A255" s="3">
+        <v>246</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E255" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F255" s="5"/>
+      <c r="G255" s="12" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A256" s="3">
+        <v>247</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F256" s="5"/>
+      <c r="G256" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A257" s="3">
+        <v>248</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="E257" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F257" s="5"/>
+      <c r="G257" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A258" s="3">
+        <v>249</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F258" s="5"/>
+      <c r="G258" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A259" s="3">
+        <v>250</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E259" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F259" s="5"/>
+      <c r="G259" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A260" s="3">
+        <v>251</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E260" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F260" s="5"/>
+      <c r="G260" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A261" s="3">
+        <v>252</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="E261" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F261" s="5"/>
+      <c r="G261" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A262" s="3">
+        <v>253</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E262" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F262" s="5"/>
+      <c r="G262" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A263" s="3">
+        <v>254</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E263" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F263" s="5"/>
+      <c r="G263" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A264" s="3">
+        <v>255</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E264" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F264" s="5"/>
+      <c r="G264" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A265" s="3">
+        <v>256</v>
+      </c>
+      <c r="C265" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="E265" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F265" s="5"/>
+      <c r="G265" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A266" s="3">
+        <v>257</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E266" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F266" s="5"/>
+      <c r="G266" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A267" s="3">
+        <v>258</v>
+      </c>
+      <c r="C267" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="E267" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F267" s="5"/>
+      <c r="G267" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A268" s="3">
+        <v>259</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E268" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F268" s="5"/>
+      <c r="G268" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A269" s="3">
+        <v>260</v>
+      </c>
+      <c r="C269" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="E269" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F269" s="5"/>
+      <c r="G269" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A270" s="3">
+        <v>261</v>
+      </c>
+      <c r="C270" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E270" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F270" s="5"/>
+      <c r="G270" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A271" s="3">
+        <v>262</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E271" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F271" s="5"/>
+      <c r="G271" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A272" s="3">
+        <v>263</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E272" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F272" s="5"/>
+      <c r="G272" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A273" s="3">
+        <v>264</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="E273" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F273" s="5"/>
+      <c r="G273" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A274" s="3">
+        <v>265</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E274" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F274" s="5"/>
+      <c r="G274" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A275" s="3">
+        <v>266</v>
+      </c>
+      <c r="C275" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E275" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F275" s="5"/>
+      <c r="G275" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A276" s="3">
+        <v>267</v>
+      </c>
+      <c r="C276" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F276" s="5"/>
+      <c r="G276" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A277" s="3">
+        <v>268</v>
+      </c>
+      <c r="C277" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F277" s="5"/>
+      <c r="G277" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" s="3">
+        <v>269</v>
+      </c>
+      <c r="C278" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E278" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F278" s="5"/>
+      <c r="G278" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" s="3">
+        <v>270</v>
+      </c>
+      <c r="C279" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F279" s="5"/>
+      <c r="G279" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" s="3">
+        <v>271</v>
+      </c>
+      <c r="C280" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F280" s="5"/>
+      <c r="G280" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" s="3">
+        <v>272</v>
+      </c>
+      <c r="C281" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F281" s="5"/>
+      <c r="G281" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" s="3">
+        <v>273</v>
+      </c>
+      <c r="C282" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F282" s="5"/>
+      <c r="G282" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" s="3">
+        <v>274</v>
+      </c>
+      <c r="C283" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F283" s="5"/>
+      <c r="G283" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" s="3">
+        <v>275</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F284" s="5"/>
+      <c r="G284" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" s="3">
+        <v>276</v>
+      </c>
+      <c r="C285" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F285" s="5"/>
+      <c r="G285" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" s="3">
+        <v>277</v>
+      </c>
+      <c r="C286" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F286" s="5"/>
+      <c r="G286" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" s="3">
+        <v>278</v>
+      </c>
+      <c r="C287" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F287" s="5"/>
+      <c r="G287" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" s="3">
+        <v>279</v>
+      </c>
+      <c r="C288" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F288" s="5"/>
+      <c r="G288" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" s="3">
+        <v>280</v>
+      </c>
+      <c r="C289" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F289" s="5"/>
+      <c r="G289" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" s="3">
+        <v>281</v>
+      </c>
+      <c r="C290" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F290" s="5"/>
+      <c r="G290" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" s="3">
+        <v>282</v>
+      </c>
+      <c r="C291" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F291" s="5"/>
+      <c r="G291" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" s="3">
+        <v>283</v>
+      </c>
+      <c r="C292" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F292" s="5"/>
+      <c r="G292" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" s="3">
+        <v>284</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F293" s="5"/>
+      <c r="G293" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" s="3">
+        <v>285</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="E294" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F294" s="5"/>
+      <c r="G294" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" s="3">
+        <v>286</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F295" s="5"/>
+      <c r="G295" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" s="3">
+        <v>287</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E296" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F296" s="5"/>
+      <c r="G296" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" s="3">
+        <v>288</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="F297" s="5"/>
+      <c r="G297" s="12" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>
